--- a/Datos/Anuario2024/130101_VisitantesMuseosMonumentos.xlsx
+++ b/Datos/Anuario2024/130101_VisitantesMuseosMonumentos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="117" r:id="rId1"/>
+    <sheet name="1" sheetId="118" r:id="rId2"/>
+    <sheet name="2" sheetId="115" r:id="rId3"/>
+    <sheet name="3" sheetId="119" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -51,105 +57,322 @@
     <definedName name="_R7_1">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
+  <si>
+    <t>Torres de Serranos</t>
+  </si>
+  <si>
+    <t>Centro del Carmen</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octubre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junio </t>
+  </si>
+  <si>
+    <t>Extranjeros</t>
+  </si>
+  <si>
+    <t>MuVIM</t>
+  </si>
+  <si>
+    <t>Torres de Quart</t>
+  </si>
+  <si>
+    <t>Museo de las Ciencias Príncipe Felipe</t>
+  </si>
+  <si>
+    <t>Museo Fallero</t>
+  </si>
+  <si>
+    <t>Museo Taurino</t>
+  </si>
+  <si>
+    <t>Palacio de Cervelló</t>
+  </si>
+  <si>
+    <t>Museo de la Semana Santa Marinera</t>
+  </si>
+  <si>
+    <t>Casa-Museo Benlliure</t>
+  </si>
+  <si>
+    <t>Casa-Museo Blasco Ibáñez</t>
+  </si>
+  <si>
+    <t>Casa-Museo Concha Piquer</t>
+  </si>
+  <si>
+    <t>Cripta San Vicente</t>
+  </si>
+  <si>
+    <t>Galería del Tossal</t>
+  </si>
+  <si>
+    <t>El Almudín</t>
+  </si>
+  <si>
+    <t>Las Reales Atarazanas</t>
+  </si>
+  <si>
+    <t>La Lonja</t>
+  </si>
+  <si>
+    <t>Museo Cerámica González Martí</t>
+  </si>
+  <si>
+    <t>Museo Ciencias Naturales</t>
+  </si>
+  <si>
+    <t>Museo de Bellas Artes San Pío V</t>
+  </si>
+  <si>
+    <t>Fundación Chirivella Soriano</t>
+  </si>
+  <si>
+    <t>La Almoina</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>IVAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministerio de Cultura (Museo de Cerámica "González Martí"); Ministerio de Defensa (Histórico Militar); Museo Real Colegio Seminario de Corpus Christi (Patriarca); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo Taurino; MuVIM; Centro Cultural La Beneficència (Museu de Prehistòria, Museu d'Etnologia); Generalitat Valenciana (Museo de Bellas Artes San Pío V); IVAM; </t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Cultura Festiva. Servicio de Patrimonio Histórico y Artístico. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Museo de Historia de València</t>
+  </si>
+  <si>
+    <t>Palació de la Exposición (*)</t>
+  </si>
+  <si>
+    <t>Palacio de la Exposición (*)</t>
+  </si>
+  <si>
+    <t>Museo del Gremio de Artistas Falleros; Fundación Chirivella Soriano; Ciutat de les Arts i les Ciències (Museo de las Ciencias Príncipe Felipe); Consorcio de Museos de la Comunidad Valenciana (Centro del Carmen).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: Servicio de Patrimonio Histórico y Artístico. Servicio de Cultura Festiva (Museo Fallero, Museo Casa de las Rocas, Museo de la Semana Santa Marinera). Ayuntamiento de València; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palacete de Monforte (*) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo del Arroz  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo del Arroz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histórico Militar </t>
+  </si>
+  <si>
+    <t>Museo del Gremio de Artistas Falleros</t>
+  </si>
+  <si>
+    <t>Nacionales</t>
+  </si>
+  <si>
+    <t>Museo de Etnología</t>
+  </si>
+  <si>
+    <t>Museo de Prehistoria</t>
+  </si>
+  <si>
+    <t>Locales</t>
+  </si>
+  <si>
+    <t>MUSEOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo de Cerámica </t>
+  </si>
+  <si>
+    <t>1. Número de visitantes a los museos. 2023</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Museo del Patriarca Corpus Christi</t>
+  </si>
+  <si>
+    <t>2. Número de visitantes a los museos municipales por meses. 2023</t>
+  </si>
+  <si>
+    <t>Museo de la Ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo Histórico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo Casa de las Rocas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refugio de la Guerra Civil Ayuntamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sala Municipal de Exposiciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo de la Ciudad </t>
+  </si>
+  <si>
+    <t>3. Número de visitantes a los museos municipales según procedencia. 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: (*) Entrada libre sin recuento. </t>
+  </si>
+  <si>
+    <t>Nota: (*) Entrada libre sin recuento.</t>
+  </si>
+  <si>
+    <t>Refugio de la Guerra Civil Serranos</t>
+  </si>
+  <si>
+    <t>Refugio de la Guerra Civil Massarrojos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -179,56 +402,56 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,6 +459,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -304,13 +528,31 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -551,8 +793,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5053,8 +5295,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5754,2564 +5996,2200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="13.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="inlineStr">
-        <is>
-          <t>MUSEOS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="inlineStr">
-        <is>
-          <t>1. Número de visitantes a los museos. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Museo de las Ciencias Príncipe Felipe</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
         <v>1079521</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>La Lonja</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7">
         <v>732394</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>MuVIM</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Torres de Serranos</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7">
         <v>304377</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Centro del Carmen</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
         <v>299623</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Museo de Bellas Artes San Pío V</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7">
         <v>272989</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Museo Cerámica González Martí</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4">
         <v>218601</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>IVAM</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="7">
         <v>202540</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Museo de Etnología</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4">
         <v>151016</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Museo de Prehistoria</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7">
         <v>112751</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Museo Fallero</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
         <v>108981</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Torres de Quart</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7">
         <v>96852</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>La Almoina</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4">
         <v>90138</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Museo Ciencias Naturales</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7">
         <v>75683</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Fundación Chirivella Soriano</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
         <v>48618</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo Casa de las Rocas </t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="7">
         <v>38960</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Histórico Militar </t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4">
         <v>29852</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo de la Ciudad </t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7">
         <v>26942</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo Histórico </t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="4">
         <v>20764</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>Casa-Museo Benlliure</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
         <v>20436</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Museo Taurino</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="n">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
         <v>19641</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Museo de Historia de València</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="7">
         <v>19589</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Museo de la Semana Santa Marinera</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="n">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
         <v>16756</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>Las Reales Atarazanas</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7">
         <v>13193</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Museo del Gremio de Artistas Falleros</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="n">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="4">
         <v>12803</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>Casa-Museo Blasco Ibáñez</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7">
         <v>11512</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo del Arroz  </t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="n">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="4">
         <v>11417</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>Palacio de Cervelló</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7">
         <v>11087</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>Cripta San Vicente</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="n">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4">
         <v>10529</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sala Municipal de Exposiciones </t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="n">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="7">
         <v>10487</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>El Almudín</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="n">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4">
         <v>9111</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>Museo del Patriarca Corpus Christi</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="n">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="7">
         <v>7182</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Refugio de la Guerra Civil Ayuntamiento </t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="n">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="4">
         <v>4979</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>Refugio de la Guerra Civil Serranos</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="7">
         <v>3544</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>Galería del Tossal</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="n">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="4">
         <v>2768</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Casa-Museo Concha Piquer</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="7">
         <v>1941</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>Refugio de la Guerra Civil Massarrojos</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="n">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="4">
         <v>258</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>Palacio de la Exposición (*)</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palacete de Monforte (*) </t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
-        <is>
-          <t>Nota: (*) Entrada libre sin recuento.</t>
-        </is>
-      </c>
-      <c r="B43" s="8" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Servicio de Patrimonio Histórico y Artístico. Servicio de Cultura Festiva (Museo Fallero, Museo Casa de las Rocas, Museo de la Semana Santa Marinera). Ayuntamiento de València; </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo Taurino; MuVIM; Centro Cultural La Beneficència (Museu de Prehistòria, Museu d'Etnologia); Generalitat Valenciana (Museo de Bellas Artes San Pío V); IVAM; </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ministerio de Cultura (Museo de Cerámica "González Martí"); Ministerio de Defensa (Histórico Militar); Museo Real Colegio Seminario de Corpus Christi (Patriarca); </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="inlineStr">
-        <is>
-          <t>Museo del Gremio de Artistas Falleros; Fundación Chirivella Soriano; Ciutat de les Arts i les Ciències (Museo de las Ciencias Príncipe Felipe); Consorcio de Museos de la Comunidad Valenciana (Centro del Carmen).</t>
-        </is>
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" min="1" max="1"/>
-    <col width="9.42578125" customWidth="1" style="18" min="2" max="2"/>
-    <col width="9.42578125" customWidth="1" min="3" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9.42578125" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="10.7109375" customWidth="1" min="14" max="14"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="18" customWidth="1"/>
+    <col min="3" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="5">
-      <c r="A1" s="14" t="inlineStr">
-        <is>
-          <t>2. Número de visitantes a los museos municipales por meses. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="16" t="n"/>
-    </row>
-    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="1">
-      <c r="A2" s="24" t="n"/>
-      <c r="B2" s="25" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="G3" s="11" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="H3" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Junio </t>
-        </is>
-      </c>
-      <c r="I3" s="10" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="J3" s="11" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="K3" s="11" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="L3" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Octubre </t>
-        </is>
-      </c>
-      <c r="M3" s="11" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="N3" s="11" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>La Lonja</t>
-        </is>
-      </c>
-      <c r="B4" s="19" t="n">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="19">
         <v>732394</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="20">
         <v>45660</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="20">
         <v>58719</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="20">
         <v>60723</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="20">
         <v>75871</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="20">
         <v>69763</v>
       </c>
-      <c r="H4" s="20" t="n">
+      <c r="H4" s="20">
         <v>55857</v>
       </c>
-      <c r="I4" s="20" t="n">
+      <c r="I4" s="20">
         <v>58751</v>
       </c>
-      <c r="J4" s="20" t="n">
+      <c r="J4" s="20">
         <v>64241</v>
       </c>
-      <c r="K4" s="20" t="n">
+      <c r="K4" s="20">
         <v>64997</v>
       </c>
-      <c r="L4" s="20" t="n">
+      <c r="L4" s="20">
         <v>77813</v>
       </c>
-      <c r="M4" s="20" t="n">
+      <c r="M4" s="20">
         <v>50580</v>
       </c>
-      <c r="N4" s="20" t="n">
+      <c r="N4" s="20">
         <v>49419</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Torres de Serranos</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15">
         <v>304377</v>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="21">
         <v>14363</v>
       </c>
-      <c r="D5" s="21" t="n">
+      <c r="D5" s="21">
         <v>16274</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="21">
         <v>28618</v>
       </c>
-      <c r="F5" s="21" t="n">
+      <c r="F5" s="21">
         <v>34836</v>
       </c>
-      <c r="G5" s="21" t="n">
+      <c r="G5" s="21">
         <v>30328</v>
       </c>
-      <c r="H5" s="21" t="n">
+      <c r="H5" s="21">
         <v>23100</v>
       </c>
-      <c r="I5" s="21" t="n">
+      <c r="I5" s="21">
         <v>23924</v>
       </c>
-      <c r="J5" s="21" t="n">
+      <c r="J5" s="21">
         <v>28359</v>
       </c>
-      <c r="K5" s="21" t="n">
+      <c r="K5" s="21">
         <v>23498</v>
       </c>
-      <c r="L5" s="21" t="n">
+      <c r="L5" s="21">
         <v>36614</v>
       </c>
-      <c r="M5" s="21" t="n">
+      <c r="M5" s="21">
         <v>22223</v>
       </c>
-      <c r="N5" s="21" t="n">
+      <c r="N5" s="21">
         <v>22240</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo de Cerámica </t>
-        </is>
-      </c>
-      <c r="B6" s="19" t="n">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="19">
         <v>218601</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="20">
         <v>13490</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="20">
         <v>14893</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="20">
         <v>16312</v>
       </c>
-      <c r="F6" s="20" t="n">
+      <c r="F6" s="20">
         <v>19696</v>
       </c>
-      <c r="G6" s="20" t="n">
+      <c r="G6" s="20">
         <v>19123</v>
       </c>
-      <c r="H6" s="20" t="n">
+      <c r="H6" s="20">
         <v>14783</v>
       </c>
-      <c r="I6" s="20" t="n">
+      <c r="I6" s="20">
         <v>16101</v>
       </c>
-      <c r="J6" s="20" t="n">
+      <c r="J6" s="20">
         <v>20069</v>
       </c>
-      <c r="K6" s="20" t="n">
+      <c r="K6" s="20">
         <v>21435</v>
       </c>
-      <c r="L6" s="20" t="n">
+      <c r="L6" s="20">
         <v>23831</v>
       </c>
-      <c r="M6" s="20" t="n">
+      <c r="M6" s="20">
         <v>18565</v>
       </c>
-      <c r="N6" s="20" t="n">
+      <c r="N6" s="20">
         <v>20303</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Museo Fallero</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="15">
         <v>108981</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="21">
         <v>4434</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="21">
         <v>8987</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="E7" s="21">
         <v>18363</v>
       </c>
-      <c r="F7" s="21" t="n">
+      <c r="F7" s="21">
         <v>13263</v>
       </c>
-      <c r="G7" s="21" t="n">
+      <c r="G7" s="21">
         <v>11896</v>
       </c>
-      <c r="H7" s="21" t="n">
+      <c r="H7" s="21">
         <v>7591</v>
       </c>
-      <c r="I7" s="21" t="n">
+      <c r="I7" s="21">
         <v>7872</v>
       </c>
-      <c r="J7" s="21" t="n">
+      <c r="J7" s="21">
         <v>7384</v>
       </c>
-      <c r="K7" s="21" t="n">
+      <c r="K7" s="21">
         <v>7600</v>
       </c>
-      <c r="L7" s="21" t="n">
+      <c r="L7" s="21">
         <v>8529</v>
       </c>
-      <c r="M7" s="21" t="n">
+      <c r="M7" s="21">
         <v>6320</v>
       </c>
-      <c r="N7" s="21" t="n">
+      <c r="N7" s="21">
         <v>6742</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Torres de Quart</t>
-        </is>
-      </c>
-      <c r="B8" s="19" t="n">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="19">
         <v>96852</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="20">
         <v>7885</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="20">
         <v>10688</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="20">
         <v>8923</v>
       </c>
-      <c r="F8" s="20" t="n">
+      <c r="F8" s="20">
         <v>10816</v>
       </c>
-      <c r="G8" s="20" t="n">
+      <c r="G8" s="20">
         <v>8226</v>
       </c>
-      <c r="H8" s="20" t="n">
+      <c r="H8" s="20">
         <v>5934</v>
       </c>
-      <c r="I8" s="20" t="n">
+      <c r="I8" s="20">
         <v>6133</v>
       </c>
-      <c r="J8" s="20" t="n">
+      <c r="J8" s="20">
         <v>7599</v>
       </c>
-      <c r="K8" s="20" t="n">
+      <c r="K8" s="20">
         <v>7167</v>
       </c>
-      <c r="L8" s="20" t="n">
+      <c r="L8" s="20">
         <v>10125</v>
       </c>
-      <c r="M8" s="20" t="n">
+      <c r="M8" s="20">
         <v>6785</v>
       </c>
-      <c r="N8" s="20" t="n">
+      <c r="N8" s="20">
         <v>6571</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>La Almoina</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15">
         <v>90138</v>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C9" s="21">
         <v>5551</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="21">
         <v>6918</v>
       </c>
-      <c r="E9" s="21" t="n">
+      <c r="E9" s="21">
         <v>7222</v>
       </c>
-      <c r="F9" s="21" t="n">
+      <c r="F9" s="21">
         <v>9687</v>
       </c>
-      <c r="G9" s="21" t="n">
+      <c r="G9" s="21">
         <v>8772</v>
       </c>
-      <c r="H9" s="21" t="n">
+      <c r="H9" s="21">
         <v>7297</v>
       </c>
-      <c r="I9" s="21" t="n">
+      <c r="I9" s="21">
         <v>7370</v>
       </c>
-      <c r="J9" s="21" t="n">
+      <c r="J9" s="21">
         <v>7269</v>
       </c>
-      <c r="K9" s="21" t="n">
+      <c r="K9" s="21">
         <v>6591</v>
       </c>
-      <c r="L9" s="21" t="n">
+      <c r="L9" s="21">
         <v>9097</v>
       </c>
-      <c r="M9" s="21" t="n">
+      <c r="M9" s="21">
         <v>7165</v>
       </c>
-      <c r="N9" s="21" t="n">
+      <c r="N9" s="21">
         <v>7199</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Museo Ciencias Naturales</t>
-        </is>
-      </c>
-      <c r="B10" s="19" t="n">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="19">
         <v>75683</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="20">
         <v>5013</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="20">
         <v>6766</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="20">
         <v>5130</v>
       </c>
-      <c r="F10" s="20" t="n">
+      <c r="F10" s="20">
         <v>9517</v>
       </c>
-      <c r="G10" s="20" t="n">
+      <c r="G10" s="20">
         <v>6331</v>
       </c>
-      <c r="H10" s="20" t="n">
+      <c r="H10" s="20">
         <v>5611</v>
       </c>
-      <c r="I10" s="20" t="n">
+      <c r="I10" s="20">
         <v>6797</v>
       </c>
-      <c r="J10" s="20" t="n">
+      <c r="J10" s="20">
         <v>7875</v>
       </c>
-      <c r="K10" s="20" t="n">
+      <c r="K10" s="20">
         <v>5561</v>
       </c>
-      <c r="L10" s="20" t="n">
+      <c r="L10" s="20">
         <v>6365</v>
       </c>
-      <c r="M10" s="20" t="n">
+      <c r="M10" s="20">
         <v>5712</v>
       </c>
-      <c r="N10" s="20" t="n">
+      <c r="N10" s="20">
         <v>5005</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo Casa de las Rocas </t>
-        </is>
-      </c>
-      <c r="B11" s="15" t="n">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="15">
         <v>38960</v>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="21">
         <v>0</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="21">
         <v>0</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="21">
         <v>0</v>
       </c>
-      <c r="F11" s="21" t="n">
+      <c r="F11" s="21">
         <v>0</v>
       </c>
-      <c r="G11" s="21" t="n">
+      <c r="G11" s="21">
         <v>283</v>
       </c>
-      <c r="H11" s="21" t="n">
+      <c r="H11" s="21">
         <v>3174</v>
       </c>
-      <c r="I11" s="21" t="n">
+      <c r="I11" s="21">
         <v>4188</v>
       </c>
-      <c r="J11" s="21" t="n">
+      <c r="J11" s="21">
         <v>4413</v>
       </c>
-      <c r="K11" s="21" t="n">
+      <c r="K11" s="21">
         <v>4241</v>
       </c>
-      <c r="L11" s="21" t="n">
+      <c r="L11" s="21">
         <v>8582</v>
       </c>
-      <c r="M11" s="21" t="n">
+      <c r="M11" s="21">
         <v>6775</v>
       </c>
-      <c r="N11" s="21" t="n">
+      <c r="N11" s="21">
         <v>7304</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Museo de la Ciudad</t>
-        </is>
-      </c>
-      <c r="B12" s="19" t="n">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="19">
         <v>26942</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="20">
         <v>1524</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="20">
         <v>1472</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="20">
         <v>1562</v>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="20">
         <v>1363</v>
       </c>
-      <c r="G12" s="20" t="n">
+      <c r="G12" s="20">
         <v>3859</v>
       </c>
-      <c r="H12" s="20" t="n">
+      <c r="H12" s="20">
         <v>2623</v>
       </c>
-      <c r="I12" s="20" t="n">
+      <c r="I12" s="20">
         <v>1917</v>
       </c>
-      <c r="J12" s="20" t="n">
+      <c r="J12" s="20">
         <v>2312</v>
       </c>
-      <c r="K12" s="20" t="n">
+      <c r="K12" s="20">
         <v>2185</v>
       </c>
-      <c r="L12" s="20" t="n">
+      <c r="L12" s="20">
         <v>2394</v>
       </c>
-      <c r="M12" s="20" t="n">
+      <c r="M12" s="20">
         <v>2855</v>
       </c>
-      <c r="N12" s="20" t="n">
+      <c r="N12" s="20">
         <v>2876</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo Histórico </t>
-        </is>
-      </c>
-      <c r="B13" s="15" t="n">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="15">
         <v>20764</v>
       </c>
-      <c r="C13" s="21" t="n">
+      <c r="C13" s="21">
         <v>0</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" s="21">
         <v>0</v>
       </c>
-      <c r="E13" s="21" t="n">
+      <c r="E13" s="21">
         <v>0</v>
       </c>
-      <c r="F13" s="21" t="n">
+      <c r="F13" s="21">
         <v>0</v>
       </c>
-      <c r="G13" s="21" t="n">
+      <c r="G13" s="21">
         <v>0</v>
       </c>
-      <c r="H13" s="21" t="n">
+      <c r="H13" s="21">
         <v>0</v>
       </c>
-      <c r="I13" s="21" t="n">
+      <c r="I13" s="21">
         <v>0</v>
       </c>
-      <c r="J13" s="21" t="n">
+      <c r="J13" s="21">
         <v>0</v>
       </c>
-      <c r="K13" s="21" t="n">
+      <c r="K13" s="21">
         <v>0</v>
       </c>
-      <c r="L13" s="21" t="n">
+      <c r="L13" s="21">
         <v>0</v>
       </c>
-      <c r="M13" s="21" t="n">
+      <c r="M13" s="21">
         <v>6223</v>
       </c>
-      <c r="N13" s="21" t="n">
+      <c r="N13" s="21">
         <v>14541</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Casa-Museo Benlliure</t>
-        </is>
-      </c>
-      <c r="B14" s="19" t="n">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="19">
         <v>20436</v>
       </c>
-      <c r="C14" s="20" t="n">
+      <c r="C14" s="20">
         <v>1162</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="20">
         <v>1595</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="E14" s="20">
         <v>2236</v>
       </c>
-      <c r="F14" s="20" t="n">
+      <c r="F14" s="20">
         <v>1602</v>
       </c>
-      <c r="G14" s="20" t="n">
+      <c r="G14" s="20">
         <v>1606</v>
       </c>
-      <c r="H14" s="20" t="n">
+      <c r="H14" s="20">
         <v>1216</v>
       </c>
-      <c r="I14" s="20" t="n">
+      <c r="I14" s="20">
         <v>842</v>
       </c>
-      <c r="J14" s="20" t="n">
+      <c r="J14" s="20">
         <v>1183</v>
       </c>
-      <c r="K14" s="20" t="n">
+      <c r="K14" s="20">
         <v>1342</v>
       </c>
-      <c r="L14" s="20" t="n">
+      <c r="L14" s="20">
         <v>2128</v>
       </c>
-      <c r="M14" s="20" t="n">
+      <c r="M14" s="20">
         <v>3491</v>
       </c>
-      <c r="N14" s="20" t="n">
+      <c r="N14" s="20">
         <v>2033</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>Museo de Historia de València</t>
-        </is>
-      </c>
-      <c r="B15" s="15" t="n">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="15">
         <v>19589</v>
       </c>
-      <c r="C15" s="21" t="n">
+      <c r="C15" s="21">
         <v>1424</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="21">
         <v>1765</v>
       </c>
-      <c r="E15" s="21" t="n">
+      <c r="E15" s="21">
         <v>1535</v>
       </c>
-      <c r="F15" s="21" t="n">
+      <c r="F15" s="21">
         <v>2024</v>
       </c>
-      <c r="G15" s="21" t="n">
+      <c r="G15" s="21">
         <v>1866</v>
       </c>
-      <c r="H15" s="21" t="n">
+      <c r="H15" s="21">
         <v>1812</v>
       </c>
-      <c r="I15" s="21" t="n">
+      <c r="I15" s="21">
         <v>2057</v>
       </c>
-      <c r="J15" s="21" t="n">
+      <c r="J15" s="21">
         <v>1624</v>
       </c>
-      <c r="K15" s="21" t="n">
+      <c r="K15" s="21">
         <v>1270</v>
       </c>
-      <c r="L15" s="21" t="n">
+      <c r="L15" s="21">
         <v>1538</v>
       </c>
-      <c r="M15" s="21" t="n">
+      <c r="M15" s="21">
         <v>1609</v>
       </c>
-      <c r="N15" s="21" t="n">
+      <c r="N15" s="21">
         <v>1065</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Museo de la Semana Santa Marinera</t>
-        </is>
-      </c>
-      <c r="B16" s="19" t="n">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19">
         <v>16756</v>
       </c>
-      <c r="C16" s="20" t="n">
+      <c r="C16" s="20">
         <v>923</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="20">
         <v>2345</v>
       </c>
-      <c r="E16" s="20" t="n">
+      <c r="E16" s="20">
         <v>2291</v>
       </c>
-      <c r="F16" s="20" t="n">
+      <c r="F16" s="20">
         <v>3460</v>
       </c>
-      <c r="G16" s="20" t="n">
+      <c r="G16" s="20">
         <v>1225</v>
       </c>
-      <c r="H16" s="20" t="n">
+      <c r="H16" s="20">
         <v>1001</v>
       </c>
-      <c r="I16" s="20" t="n">
+      <c r="I16" s="20">
         <v>702</v>
       </c>
-      <c r="J16" s="20" t="n">
+      <c r="J16" s="20">
         <v>638</v>
       </c>
-      <c r="K16" s="20" t="n">
+      <c r="K16" s="20">
         <v>754</v>
       </c>
-      <c r="L16" s="20" t="n">
+      <c r="L16" s="20">
         <v>946</v>
       </c>
-      <c r="M16" s="20" t="n">
+      <c r="M16" s="20">
         <v>1303</v>
       </c>
-      <c r="N16" s="20" t="n">
+      <c r="N16" s="20">
         <v>1168</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="12" t="inlineStr">
-        <is>
-          <t>Las Reales Atarazanas</t>
-        </is>
-      </c>
-      <c r="B17" s="15" t="n">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="15">
         <v>13193</v>
       </c>
-      <c r="C17" s="21" t="n">
+      <c r="C17" s="21">
         <v>662</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="21">
         <v>680</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="21">
         <v>1774</v>
       </c>
-      <c r="F17" s="21" t="n">
+      <c r="F17" s="21">
         <v>2574</v>
       </c>
-      <c r="G17" s="21" t="n">
+      <c r="G17" s="21">
         <v>1913</v>
       </c>
-      <c r="H17" s="21" t="n">
+      <c r="H17" s="21">
         <v>2102</v>
       </c>
-      <c r="I17" s="21" t="n">
+      <c r="I17" s="21">
         <v>196</v>
       </c>
-      <c r="J17" s="21" t="n">
+      <c r="J17" s="21">
         <v>19</v>
       </c>
-      <c r="K17" s="21" t="n">
+      <c r="K17" s="21">
         <v>90</v>
       </c>
-      <c r="L17" s="21" t="n">
+      <c r="L17" s="21">
         <v>1130</v>
       </c>
-      <c r="M17" s="21" t="n">
+      <c r="M17" s="21">
         <v>949</v>
       </c>
-      <c r="N17" s="21" t="n">
+      <c r="N17" s="21">
         <v>1104</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Casa-Museo Blasco Ibáñez</t>
-        </is>
-      </c>
-      <c r="B18" s="19" t="n">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="19">
         <v>11512</v>
       </c>
-      <c r="C18" s="20" t="n">
+      <c r="C18" s="20">
         <v>843</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="20">
         <v>1189</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E18" s="20">
         <v>1296</v>
       </c>
-      <c r="F18" s="20" t="n">
+      <c r="F18" s="20">
         <v>1270</v>
       </c>
-      <c r="G18" s="20" t="n">
+      <c r="G18" s="20">
         <v>1318</v>
       </c>
-      <c r="H18" s="20" t="n">
+      <c r="H18" s="20">
         <v>898</v>
       </c>
-      <c r="I18" s="20" t="n">
+      <c r="I18" s="20">
         <v>771</v>
       </c>
-      <c r="J18" s="20" t="n">
+      <c r="J18" s="20">
         <v>529</v>
       </c>
-      <c r="K18" s="20" t="n">
+      <c r="K18" s="20">
         <v>694</v>
       </c>
-      <c r="L18" s="20" t="n">
+      <c r="L18" s="20">
         <v>797</v>
       </c>
-      <c r="M18" s="20" t="n">
+      <c r="M18" s="20">
         <v>774</v>
       </c>
-      <c r="N18" s="20" t="n">
+      <c r="N18" s="20">
         <v>1133</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo del Arroz </t>
-        </is>
-      </c>
-      <c r="B19" s="15" t="n">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="15">
         <v>11269</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="21">
         <v>887</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="21">
         <v>1395</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="21">
         <v>1768</v>
       </c>
-      <c r="F19" s="21" t="n">
+      <c r="F19" s="21">
         <v>1281</v>
       </c>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="21">
         <v>1170</v>
       </c>
-      <c r="H19" s="21" t="n">
+      <c r="H19" s="21">
         <v>959</v>
       </c>
-      <c r="I19" s="21" t="n">
+      <c r="I19" s="21">
         <v>722</v>
       </c>
-      <c r="J19" s="21" t="n">
+      <c r="J19" s="21">
         <v>445</v>
       </c>
-      <c r="K19" s="21" t="n">
+      <c r="K19" s="21">
         <v>688</v>
       </c>
-      <c r="L19" s="21" t="n">
+      <c r="L19" s="21">
         <v>959</v>
       </c>
-      <c r="M19" s="21" t="n">
+      <c r="M19" s="21">
         <v>498</v>
       </c>
-      <c r="N19" s="21" t="n">
+      <c r="N19" s="21">
         <v>497</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Palacio de Cervelló</t>
-        </is>
-      </c>
-      <c r="B20" s="19" t="n">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="19">
         <v>11087</v>
       </c>
-      <c r="C20" s="20" t="n">
+      <c r="C20" s="20">
         <v>775</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="20">
         <v>925</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="20">
         <v>958</v>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="F20" s="20">
         <v>662</v>
       </c>
-      <c r="G20" s="20" t="n">
+      <c r="G20" s="20">
         <v>1146</v>
       </c>
-      <c r="H20" s="20" t="n">
+      <c r="H20" s="20">
         <v>573</v>
       </c>
-      <c r="I20" s="20" t="n">
+      <c r="I20" s="20">
         <v>954</v>
       </c>
-      <c r="J20" s="20" t="n">
+      <c r="J20" s="20">
         <v>660</v>
       </c>
-      <c r="K20" s="20" t="n">
+      <c r="K20" s="20">
         <v>939</v>
       </c>
-      <c r="L20" s="20" t="n">
+      <c r="L20" s="20">
         <v>1104</v>
       </c>
-      <c r="M20" s="20" t="n">
+      <c r="M20" s="20">
         <v>1245</v>
       </c>
-      <c r="N20" s="20" t="n">
+      <c r="N20" s="20">
         <v>1146</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="12" t="inlineStr">
-        <is>
-          <t>Cripta San Vicente</t>
-        </is>
-      </c>
-      <c r="B21" s="15" t="n">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="15">
         <v>10529</v>
       </c>
-      <c r="C21" s="21" t="n">
+      <c r="C21" s="21">
         <v>1010</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="21">
         <v>785</v>
       </c>
-      <c r="E21" s="21" t="n">
+      <c r="E21" s="21">
         <v>858</v>
       </c>
-      <c r="F21" s="21" t="n">
+      <c r="F21" s="21">
         <v>983</v>
       </c>
-      <c r="G21" s="21" t="n">
+      <c r="G21" s="21">
         <v>781</v>
       </c>
-      <c r="H21" s="21" t="n">
+      <c r="H21" s="21">
         <v>639</v>
       </c>
-      <c r="I21" s="21" t="n">
+      <c r="I21" s="21">
         <v>583</v>
       </c>
-      <c r="J21" s="21" t="n">
+      <c r="J21" s="21">
         <v>730</v>
       </c>
-      <c r="K21" s="21" t="n">
+      <c r="K21" s="21">
         <v>787</v>
       </c>
-      <c r="L21" s="21" t="n">
+      <c r="L21" s="21">
         <v>973</v>
       </c>
-      <c r="M21" s="21" t="n">
+      <c r="M21" s="21">
         <v>1217</v>
       </c>
-      <c r="N21" s="21" t="n">
+      <c r="N21" s="21">
         <v>1183</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sala Municipal de Exposiciones </t>
-        </is>
-      </c>
-      <c r="B22" s="19" t="n">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="19">
         <v>10487</v>
       </c>
-      <c r="C22" s="20" t="n">
+      <c r="C22" s="20">
         <v>753</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="20">
         <v>0</v>
       </c>
-      <c r="E22" s="20" t="n">
+      <c r="E22" s="20">
         <v>945</v>
       </c>
-      <c r="F22" s="20" t="n">
+      <c r="F22" s="20">
         <v>1740</v>
       </c>
-      <c r="G22" s="20" t="n">
+      <c r="G22" s="20">
         <v>1243</v>
       </c>
-      <c r="H22" s="20" t="n">
+      <c r="H22" s="20">
         <v>957</v>
       </c>
-      <c r="I22" s="20" t="n">
+      <c r="I22" s="20">
         <v>582</v>
       </c>
-      <c r="J22" s="20" t="n">
+      <c r="J22" s="20">
         <v>511</v>
       </c>
-      <c r="K22" s="20" t="n">
+      <c r="K22" s="20">
         <v>1008</v>
       </c>
-      <c r="L22" s="20" t="n">
+      <c r="L22" s="20">
         <v>783</v>
       </c>
-      <c r="M22" s="20" t="n">
+      <c r="M22" s="20">
         <v>927</v>
       </c>
-      <c r="N22" s="20" t="n">
+      <c r="N22" s="20">
         <v>1038</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="12" t="inlineStr">
-        <is>
-          <t>El Almudín</t>
-        </is>
-      </c>
-      <c r="B23" s="15" t="n">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="15">
         <v>9111</v>
       </c>
-      <c r="C23" s="21" t="n">
+      <c r="C23" s="21">
         <v>521</v>
       </c>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="21">
         <v>975</v>
       </c>
-      <c r="E23" s="21" t="n">
+      <c r="E23" s="21">
         <v>1057</v>
       </c>
-      <c r="F23" s="21" t="n">
+      <c r="F23" s="21">
         <v>878</v>
       </c>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="21">
         <v>1175</v>
       </c>
-      <c r="H23" s="21" t="n">
+      <c r="H23" s="21">
         <v>658</v>
       </c>
-      <c r="I23" s="21" t="n">
+      <c r="I23" s="21">
         <v>428</v>
       </c>
-      <c r="J23" s="21" t="n">
+      <c r="J23" s="21">
         <v>510</v>
       </c>
-      <c r="K23" s="21" t="n">
+      <c r="K23" s="21">
         <v>332</v>
       </c>
-      <c r="L23" s="21" t="n">
+      <c r="L23" s="21">
         <v>989</v>
       </c>
-      <c r="M23" s="21" t="n">
+      <c r="M23" s="21">
         <v>641</v>
       </c>
-      <c r="N23" s="21" t="n">
+      <c r="N23" s="21">
         <v>947</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Refugio de la Guerra Civil Ayuntamiento </t>
-        </is>
-      </c>
-      <c r="B24" s="19" t="n">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="19">
         <v>4979</v>
       </c>
-      <c r="C24" s="20" t="n">
+      <c r="C24" s="20">
         <v>0</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="20">
         <v>0</v>
       </c>
-      <c r="E24" s="20" t="n">
+      <c r="E24" s="20">
         <v>0</v>
       </c>
-      <c r="F24" s="20" t="n">
+      <c r="F24" s="20">
         <v>0</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="20">
         <v>0</v>
       </c>
-      <c r="H24" s="20" t="n">
+      <c r="H24" s="20">
         <v>0</v>
       </c>
-      <c r="I24" s="20" t="n">
+      <c r="I24" s="20">
         <v>0</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="20">
         <v>0</v>
       </c>
-      <c r="K24" s="20" t="n">
+      <c r="K24" s="20">
         <v>0</v>
       </c>
-      <c r="L24" s="20" t="n">
+      <c r="L24" s="20">
         <v>496</v>
       </c>
-      <c r="M24" s="20" t="n">
+      <c r="M24" s="20">
         <v>1834</v>
       </c>
-      <c r="N24" s="20" t="n">
+      <c r="N24" s="20">
         <v>2649</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Refugio de la Guerra Civil Serranos</t>
-        </is>
-      </c>
-      <c r="B25" s="15" t="n">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="15">
         <v>3544</v>
       </c>
-      <c r="C25" s="21" t="n">
+      <c r="C25" s="21">
         <v>369</v>
       </c>
-      <c r="D25" s="21" t="n">
+      <c r="D25" s="21">
         <v>472</v>
       </c>
-      <c r="E25" s="21" t="n">
+      <c r="E25" s="21">
         <v>577</v>
       </c>
-      <c r="F25" s="21" t="n">
+      <c r="F25" s="21">
         <v>700</v>
       </c>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="21">
         <v>776</v>
       </c>
-      <c r="H25" s="21" t="n">
+      <c r="H25" s="21">
         <v>279</v>
       </c>
-      <c r="I25" s="21" t="n">
+      <c r="I25" s="21">
         <v>254</v>
       </c>
-      <c r="J25" s="21" t="n">
+      <c r="J25" s="21">
         <v>117</v>
       </c>
-      <c r="K25" s="21" t="n">
+      <c r="K25" s="21">
         <v>0</v>
       </c>
-      <c r="L25" s="21" t="n">
+      <c r="L25" s="21">
         <v>0</v>
       </c>
-      <c r="M25" s="21" t="n">
+      <c r="M25" s="21">
         <v>0</v>
       </c>
-      <c r="N25" s="21" t="n">
+      <c r="N25" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>Galería del Tossal</t>
-        </is>
-      </c>
-      <c r="B26" s="19" t="n">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19">
         <v>2768</v>
       </c>
-      <c r="C26" s="20" t="n">
+      <c r="C26" s="20">
         <v>215</v>
       </c>
-      <c r="D26" s="20" t="n">
+      <c r="D26" s="20">
         <v>250</v>
       </c>
-      <c r="E26" s="20" t="n">
+      <c r="E26" s="20">
         <v>194</v>
       </c>
-      <c r="F26" s="20" t="n">
+      <c r="F26" s="20">
         <v>259</v>
       </c>
-      <c r="G26" s="20" t="n">
+      <c r="G26" s="20">
         <v>195</v>
       </c>
-      <c r="H26" s="20" t="n">
+      <c r="H26" s="20">
         <v>139</v>
       </c>
-      <c r="I26" s="20" t="n">
+      <c r="I26" s="20">
         <v>122</v>
       </c>
-      <c r="J26" s="20" t="n">
+      <c r="J26" s="20">
         <v>136</v>
       </c>
-      <c r="K26" s="20" t="n">
+      <c r="K26" s="20">
         <v>171</v>
       </c>
-      <c r="L26" s="20" t="n">
+      <c r="L26" s="20">
         <v>479</v>
       </c>
-      <c r="M26" s="20" t="n">
+      <c r="M26" s="20">
         <v>330</v>
       </c>
-      <c r="N26" s="20" t="n">
+      <c r="N26" s="20">
         <v>278</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="12" t="inlineStr">
-        <is>
-          <t>Casa-Museo Concha Piquer</t>
-        </is>
-      </c>
-      <c r="B27" s="15" t="n">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15">
         <v>1941</v>
       </c>
-      <c r="C27" s="21" t="n">
+      <c r="C27" s="21">
         <v>195</v>
       </c>
-      <c r="D27" s="21" t="n">
+      <c r="D27" s="21">
         <v>209</v>
       </c>
-      <c r="E27" s="21" t="n">
+      <c r="E27" s="21">
         <v>228</v>
       </c>
-      <c r="F27" s="21" t="n">
+      <c r="F27" s="21">
         <v>176</v>
       </c>
-      <c r="G27" s="21" t="n">
+      <c r="G27" s="21">
         <v>318</v>
       </c>
-      <c r="H27" s="21" t="n">
+      <c r="H27" s="21">
         <v>196</v>
       </c>
-      <c r="I27" s="21" t="n">
+      <c r="I27" s="21">
         <v>105</v>
       </c>
-      <c r="J27" s="21" t="n">
+      <c r="J27" s="21">
         <v>129</v>
       </c>
-      <c r="K27" s="21" t="n">
+      <c r="K27" s="21">
         <v>64</v>
       </c>
-      <c r="L27" s="21" t="n">
+      <c r="L27" s="21">
         <v>97</v>
       </c>
-      <c r="M27" s="21" t="n">
+      <c r="M27" s="21">
         <v>107</v>
       </c>
-      <c r="N27" s="21" t="n">
+      <c r="N27" s="21">
         <v>117</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Refugio de la Guerra Civil Massarrojos</t>
-        </is>
-      </c>
-      <c r="B28" s="19" t="n">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="19">
         <v>258</v>
       </c>
-      <c r="C28" s="20" t="n">
+      <c r="C28" s="20">
         <v>42</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="D28" s="20">
         <v>50</v>
       </c>
-      <c r="E28" s="20" t="n">
+      <c r="E28" s="20">
         <v>40</v>
       </c>
-      <c r="F28" s="20" t="n">
+      <c r="F28" s="20">
         <v>0</v>
       </c>
-      <c r="G28" s="20" t="n">
+      <c r="G28" s="20">
         <v>28</v>
       </c>
-      <c r="H28" s="20" t="n">
+      <c r="H28" s="20">
         <v>25</v>
       </c>
-      <c r="I28" s="20" t="n">
+      <c r="I28" s="20">
         <v>56</v>
       </c>
-      <c r="J28" s="20" t="n">
+      <c r="J28" s="20">
         <v>17</v>
       </c>
-      <c r="K28" s="20" t="n">
+      <c r="K28" s="20">
         <v>0</v>
       </c>
-      <c r="L28" s="20" t="n">
+      <c r="L28" s="20">
         <v>0</v>
       </c>
-      <c r="M28" s="20" t="n">
+      <c r="M28" s="20">
         <v>0</v>
       </c>
-      <c r="N28" s="20" t="n">
+      <c r="N28" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="12" t="inlineStr">
-        <is>
-          <t>Palació de la Exposición (*)</t>
-        </is>
-      </c>
-      <c r="B29" s="22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palacete de Monforte (*) </t>
-        </is>
-      </c>
-      <c r="B30" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
-        <is>
-          <t>Nota: (*) Entrada libre sin recuento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Cultura Festiva. Servicio de Patrimonio Histórico y Artístico. Ayuntamiento de València.</t>
-        </is>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="59"/>
+  <sortState ref="A7:O32">
+    <sortCondition descending="1" ref="B7:B32"/>
+  </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="inlineStr">
-        <is>
-          <t>3. Número de visitantes a los museos municipales según procedencia. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Locales</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>Nacionales</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>Extranjeros</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>La Lonja</t>
-        </is>
-      </c>
-      <c r="B4" s="19" t="n">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="19">
         <v>732394</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="20">
         <v>483603</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="20">
         <v>87621</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="20">
         <v>161170</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Torres de Serranos</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15">
         <v>304377</v>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="21">
         <v>222605</v>
       </c>
-      <c r="D5" s="21" t="n">
+      <c r="D5" s="21">
         <v>36994</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="21">
         <v>44778</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo de Cerámica </t>
-        </is>
-      </c>
-      <c r="B6" s="19" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="19">
         <v>218601</v>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" s="20" t="n">
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="20">
         <v>91291</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="20">
         <v>127310</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Museo Fallero</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="15">
         <v>108981</v>
       </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" s="21" t="n">
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="21">
         <v>50137</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="E7" s="21">
         <v>58844</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Torres de Quart</t>
-        </is>
-      </c>
-      <c r="B8" s="19" t="n">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="19">
         <v>96852</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="20">
         <v>68667</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="20">
         <v>12719</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="20">
         <v>15466</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>La Almoina</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15">
         <v>90138</v>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C9" s="21">
         <v>42291</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="21">
         <v>28679</v>
       </c>
-      <c r="E9" s="21" t="n">
+      <c r="E9" s="21">
         <v>19168</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Museo Ciencias Naturales</t>
-        </is>
-      </c>
-      <c r="B10" s="19" t="n">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="19">
         <v>75683</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="20">
         <v>23050</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="20">
         <v>38029</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="20">
         <v>14604</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo Casa de las Rocas </t>
-        </is>
-      </c>
-      <c r="B11" s="15" t="n">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="15">
         <v>38960</v>
       </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="n">
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="21">
         <v>29599</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="21">
         <v>9361</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo de la Ciudad </t>
-        </is>
-      </c>
-      <c r="B12" s="19" t="n">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="19">
         <v>26942</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="20">
         <v>7350</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="20">
         <v>15682</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="20">
         <v>3910</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo Histórico </t>
-        </is>
-      </c>
-      <c r="B13" s="15" t="n">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="15">
         <v>20764</v>
       </c>
-      <c r="C13" s="21" t="n">
+      <c r="C13" s="21">
         <v>6153</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" s="21">
         <v>7310</v>
       </c>
-      <c r="E13" s="21" t="n">
+      <c r="E13" s="21">
         <v>7301</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Casa-Museo Benlliure</t>
-        </is>
-      </c>
-      <c r="B14" s="19" t="n">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="19">
         <v>20436</v>
       </c>
-      <c r="C14" s="20" t="n">
+      <c r="C14" s="20">
         <v>5769</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="20">
         <v>9943</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="E14" s="20">
         <v>4724</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>Museo de Historia de València</t>
-        </is>
-      </c>
-      <c r="B15" s="15" t="n">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="15">
         <v>19589</v>
       </c>
-      <c r="C15" s="21" t="n">
+      <c r="C15" s="21">
         <v>8946</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="21">
         <v>8929</v>
       </c>
-      <c r="E15" s="21" t="n">
+      <c r="E15" s="21">
         <v>1714</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Museo de la Semana Santa Marinera</t>
-        </is>
-      </c>
-      <c r="B16" s="19" t="n">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19">
         <v>16756</v>
       </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" s="20" t="n">
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="20">
         <v>13620</v>
       </c>
-      <c r="E16" s="20" t="n">
+      <c r="E16" s="20">
         <v>3136</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="12" t="inlineStr">
-        <is>
-          <t>Las Reales Atarazanas</t>
-        </is>
-      </c>
-      <c r="B17" s="15" t="n">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="15">
         <v>13193</v>
       </c>
-      <c r="C17" s="21" t="n">
+      <c r="C17" s="21">
         <v>1578</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="21">
         <v>9776</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="21">
         <v>1839</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Casa-Museo Blasco Ibáñez</t>
-        </is>
-      </c>
-      <c r="B18" s="19" t="n">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="19">
         <v>11512</v>
       </c>
-      <c r="C18" s="20" t="n">
+      <c r="C18" s="20">
         <v>1804</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="20">
         <v>6033</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E18" s="20">
         <v>3675</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Museo del Arroz </t>
-        </is>
-      </c>
-      <c r="B19" s="15" t="n">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="15">
         <v>11269</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="21">
         <v>4313</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="21">
         <v>5635</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="21">
         <v>1321</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Palacio de Cervelló</t>
-        </is>
-      </c>
-      <c r="B20" s="19" t="n">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="19">
         <v>11087</v>
       </c>
-      <c r="C20" s="20" t="n">
+      <c r="C20" s="20">
         <v>2251</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="20">
         <v>6636</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="20">
         <v>2200</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="12" t="inlineStr">
-        <is>
-          <t>Cripta San Vicente</t>
-        </is>
-      </c>
-      <c r="B21" s="15" t="n">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="15">
         <v>10529</v>
       </c>
-      <c r="C21" s="21" t="n">
+      <c r="C21" s="21">
         <v>2835</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="21">
         <v>4982</v>
       </c>
-      <c r="E21" s="21" t="n">
+      <c r="E21" s="21">
         <v>2712</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sala Municipal de Exposiciones </t>
-        </is>
-      </c>
-      <c r="B22" s="19" t="n">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="19">
         <v>10487</v>
       </c>
-      <c r="C22" s="20" t="n">
+      <c r="C22" s="20">
         <v>2097</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="20">
         <v>7236</v>
       </c>
-      <c r="E22" s="20" t="n">
+      <c r="E22" s="20">
         <v>1154</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="12" t="inlineStr">
-        <is>
-          <t>El Almudín</t>
-        </is>
-      </c>
-      <c r="B23" s="15" t="n">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="15">
         <v>9111</v>
       </c>
-      <c r="C23" s="21" t="n">
+      <c r="C23" s="21">
         <v>3536</v>
       </c>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="21">
         <v>4073</v>
       </c>
-      <c r="E23" s="21" t="n">
+      <c r="E23" s="21">
         <v>1502</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Refugio de la Guerra Civil Ayuntamiento </t>
-        </is>
-      </c>
-      <c r="B24" s="19" t="n">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="19">
         <v>4979</v>
       </c>
-      <c r="C24" s="20" t="n">
+      <c r="C24" s="20">
         <v>449</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="20">
         <v>4133</v>
       </c>
-      <c r="E24" s="20" t="n">
+      <c r="E24" s="20">
         <v>397</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Refugio de la Guerra Civil Serranos</t>
-        </is>
-      </c>
-      <c r="B25" s="15" t="n">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="15">
         <v>3544</v>
       </c>
-      <c r="C25" s="21" t="n">
+      <c r="C25" s="21">
         <v>136</v>
       </c>
-      <c r="D25" s="21" t="n">
+      <c r="D25" s="21">
         <v>3200</v>
       </c>
-      <c r="E25" s="21" t="n">
+      <c r="E25" s="21">
         <v>208</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>Galería del Tossal</t>
-        </is>
-      </c>
-      <c r="B26" s="19" t="n">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19">
         <v>2768</v>
       </c>
-      <c r="C26" s="20" t="n">
+      <c r="C26" s="20">
         <v>737</v>
       </c>
-      <c r="D26" s="20" t="n">
+      <c r="D26" s="20">
         <v>1609</v>
       </c>
-      <c r="E26" s="20" t="n">
+      <c r="E26" s="20">
         <v>422</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="12" t="inlineStr">
-        <is>
-          <t>Casa-Museo Concha Piquer</t>
-        </is>
-      </c>
-      <c r="B27" s="15" t="n">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15">
         <v>1941</v>
       </c>
-      <c r="C27" s="21" t="n">
+      <c r="C27" s="21">
         <v>253</v>
       </c>
-      <c r="D27" s="21" t="n">
+      <c r="D27" s="21">
         <v>1223</v>
       </c>
-      <c r="E27" s="21" t="n">
+      <c r="E27" s="21">
         <v>465</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Refugio de la Guerra Civil Massarrojos</t>
-        </is>
-      </c>
-      <c r="B28" s="19" t="n">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="19">
         <v>258</v>
       </c>
-      <c r="C28" s="20" t="n">
+      <c r="C28" s="20">
         <v>8</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="D28" s="20">
         <v>233</v>
       </c>
-      <c r="E28" s="20" t="n">
+      <c r="E28" s="20">
         <v>17</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="12" t="inlineStr">
-        <is>
-          <t>Palació de la Exposición (*)</t>
-        </is>
-      </c>
-      <c r="B29" s="22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palacete de Monforte (*) </t>
-        </is>
-      </c>
-      <c r="B30" s="17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nota: (*) Entrada libre sin recuento. </t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Cultura Festiva. Servicio de Patrimonio Histórico y Artístico. Ayuntamiento de València.</t>
-        </is>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>